--- a/tray_list.xlsx
+++ b/tray_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>500253654X</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>500337384X</t>
-  </si>
-  <si>
-    <t>500349947X</t>
   </si>
   <si>
     <t>500355085X</t>
@@ -535,8 +532,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -861,17 +859,17 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -931,48 +929,48 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>500349947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -981,5 +979,6 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>